--- a/pred_ohlcv/54_21/2020-01-24 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 MXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1052120.139115961</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1052120.139115961</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-12338.69588403916</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-12338.69588403916</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-28314.73588403916</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-33814.73588403916</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-32314.73588403916</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-32314.73588403916</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-32314.73588403916</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2429416.759815961</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2385601.759815961</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2362441.419315961</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2362441.419315961</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2612441.419315961</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2615795.679315961</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2630795.679315961</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2519274.944115961</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>27902931.5052856</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>27931966.0459856</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>27846981.6944856</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>28023624.3267856</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>28108994.1210856</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>27862797.6280856</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>27865797.6280856</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>27870316.9416856</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>27877954.3043856</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>27900659.1495856</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>40872863.62778559</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>41144196.43268559</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>41183351.38548559</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>41682447.70498559</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>41677925.8096856</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>41486777.76008559</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>42010196.46270316</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>42010196.46270316</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>42010750.46270316</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>42010750.46270316</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>42010750.46270316</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>42010750.46270316</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>42009437.60420316</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>42517322.21580316</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>42517322.21580316</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>42467322.21580316</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>42439164.90580316</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>42439164.90580316</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>42209100.01160316</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>42209100.01160316</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>42224566.88920316</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>42224566.88920316</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>42178701.18330316</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>42151935.11820316</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>42151935.11820316</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 MXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1052120.139115961</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1052120.139115961</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-12338.69588403916</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-12338.69588403916</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-28314.73588403916</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-33814.73588403916</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-32314.73588403916</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-32314.73588403916</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-32314.73588403916</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2429416.759815961</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2385601.759815961</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2362441.419315961</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2362441.419315961</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2612441.419315961</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2630795.679315961</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2519274.944115961</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>27902931.5052856</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>27931966.0459856</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>27846981.6944856</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>28023624.3267856</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>28108994.1210856</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>27862797.6280856</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>27865797.6280856</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>27870316.9416856</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>27877954.3043856</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>27900659.1495856</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>40872863.62778559</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>41144196.43268559</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>41183351.38548559</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>41391385.96128559</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>41341267.67428559</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>41305651.99538559</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>41305651.99538559</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>41682447.70498559</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>41677925.8096856</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>41310459.64718559</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>41486777.76008559</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>41409947.28838558</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>41411353.28840317</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>41554420.13810316</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>42010196.46270316</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>42010196.46270316</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>42010750.46270316</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>42010750.46270316</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>42010750.46270316</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>42009437.60420316</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>42517322.21580316</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>42178701.18330316</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>42151935.11820316</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
